--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1842.418341650014</v>
+        <v>1988.050528313554</v>
       </c>
       <c r="AB2" t="n">
-        <v>2520.878056806203</v>
+        <v>2720.138439437892</v>
       </c>
       <c r="AC2" t="n">
-        <v>2280.288993139193</v>
+        <v>2460.532244516216</v>
       </c>
       <c r="AD2" t="n">
-        <v>1842418.341650014</v>
+        <v>1988050.528313553</v>
       </c>
       <c r="AE2" t="n">
-        <v>2520878.056806203</v>
+        <v>2720138.439437892</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.484396314965719e-07</v>
+        <v>1.265274331776209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.07175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2280288.993139193</v>
+        <v>2460532.244516216</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1088.266508333423</v>
+        <v>1192.240758178639</v>
       </c>
       <c r="AB3" t="n">
-        <v>1489.014247631696</v>
+        <v>1631.276403290088</v>
       </c>
       <c r="AC3" t="n">
-        <v>1346.904817682348</v>
+        <v>1475.589672870893</v>
       </c>
       <c r="AD3" t="n">
-        <v>1088266.508333423</v>
+        <v>1192240.758178639</v>
       </c>
       <c r="AE3" t="n">
-        <v>1489014.247631696</v>
+        <v>1631276.403290088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.053624018460755e-06</v>
+        <v>1.781203680029073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.2283950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>1346904.817682348</v>
+        <v>1475589.672870893</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>917.2330258946733</v>
+        <v>1010.792791535309</v>
       </c>
       <c r="AB4" t="n">
-        <v>1254.998691494286</v>
+        <v>1383.011290409354</v>
       </c>
       <c r="AC4" t="n">
-        <v>1135.223377779797</v>
+        <v>1251.018633921222</v>
       </c>
       <c r="AD4" t="n">
-        <v>917233.0258946733</v>
+        <v>1010792.791535309</v>
       </c>
       <c r="AE4" t="n">
-        <v>1254998.691494286</v>
+        <v>1383011.290409354</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.172315588679144e-06</v>
+        <v>1.981857668508073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.28395061728395</v>
       </c>
       <c r="AH4" t="n">
-        <v>1135223.377779797</v>
+        <v>1251018.633921222</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>831.2687928181074</v>
+        <v>914.4994151087334</v>
       </c>
       <c r="AB5" t="n">
-        <v>1137.378635324624</v>
+        <v>1251.258444618567</v>
       </c>
       <c r="AC5" t="n">
-        <v>1028.828814690182</v>
+        <v>1131.840094816426</v>
       </c>
       <c r="AD5" t="n">
-        <v>831268.7928181074</v>
+        <v>914499.4151087333</v>
       </c>
       <c r="AE5" t="n">
-        <v>1137378.635324624</v>
+        <v>1251258.444618566</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.238278691419983e-06</v>
+        <v>2.093371566530031e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36188271604938</v>
       </c>
       <c r="AH5" t="n">
-        <v>1028828.814690182</v>
+        <v>1131840.094816427</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>770.18336730794</v>
+        <v>853.4992409445867</v>
       </c>
       <c r="AB6" t="n">
-        <v>1053.798861242836</v>
+        <v>1167.795315189428</v>
       </c>
       <c r="AC6" t="n">
-        <v>953.2257769418103</v>
+        <v>1056.342569318767</v>
       </c>
       <c r="AD6" t="n">
-        <v>770183.36730794</v>
+        <v>853499.2409445867</v>
       </c>
       <c r="AE6" t="n">
-        <v>1053798.861242836</v>
+        <v>1167795.315189428</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.279820740996418e-06</v>
+        <v>2.163600462497681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>953225.7769418103</v>
+        <v>1056342.569318767</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>733.4266622727673</v>
+        <v>816.7425359094138</v>
       </c>
       <c r="AB7" t="n">
-        <v>1003.506715822333</v>
+        <v>1117.503169768924</v>
       </c>
       <c r="AC7" t="n">
-        <v>907.7334432947703</v>
+        <v>1010.850235671727</v>
       </c>
       <c r="AD7" t="n">
-        <v>733426.6622727673</v>
+        <v>816742.5359094138</v>
       </c>
       <c r="AE7" t="n">
-        <v>1003506.715822333</v>
+        <v>1117503.169768924</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305397198826664e-06</v>
+        <v>2.206838733466385e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>907733.4432947703</v>
+        <v>1010850.235671727</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>698.3287228182935</v>
+        <v>781.4740042543478</v>
       </c>
       <c r="AB8" t="n">
-        <v>955.4841666489148</v>
+        <v>1069.247208820659</v>
       </c>
       <c r="AC8" t="n">
-        <v>864.2940988143919</v>
+        <v>967.1997559086976</v>
       </c>
       <c r="AD8" t="n">
-        <v>698328.7228182935</v>
+        <v>781474.0042543479</v>
       </c>
       <c r="AE8" t="n">
-        <v>955484.1666489148</v>
+        <v>1069247.208820659</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.326247001205735e-06</v>
+        <v>2.242086358876192e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>864294.0988143919</v>
+        <v>967199.7559086976</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>692.5900723846486</v>
+        <v>775.735353820703</v>
       </c>
       <c r="AB9" t="n">
-        <v>947.6322919542129</v>
+        <v>1061.395334125957</v>
       </c>
       <c r="AC9" t="n">
-        <v>857.1915960203769</v>
+        <v>960.0972531146826</v>
       </c>
       <c r="AD9" t="n">
-        <v>692590.0723846486</v>
+        <v>775735.353820703</v>
       </c>
       <c r="AE9" t="n">
-        <v>947632.2919542128</v>
+        <v>1061395.334125957</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.330500991111792e-06</v>
+        <v>2.249277939879201e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.22762345679012</v>
       </c>
       <c r="AH9" t="n">
-        <v>857191.5960203769</v>
+        <v>960097.2531146826</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1369.979443828289</v>
+        <v>1491.06625795461</v>
       </c>
       <c r="AB2" t="n">
-        <v>1874.46631427334</v>
+        <v>2040.142635334194</v>
       </c>
       <c r="AC2" t="n">
-        <v>1695.569880069087</v>
+        <v>1845.434285576071</v>
       </c>
       <c r="AD2" t="n">
-        <v>1369979.443828289</v>
+        <v>1491066.25795461</v>
       </c>
       <c r="AE2" t="n">
-        <v>1874466.31427334</v>
+        <v>2040142.635334194</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.870384602492271e-07</v>
+        <v>1.536165228751262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.6304012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>1695569.880069087</v>
+        <v>1845434.285576071</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>880.3474494141439</v>
+        <v>981.0824461436021</v>
       </c>
       <c r="AB3" t="n">
-        <v>1204.530218476838</v>
+        <v>1342.360285116489</v>
       </c>
       <c r="AC3" t="n">
-        <v>1089.571544994188</v>
+        <v>1214.247303519463</v>
       </c>
       <c r="AD3" t="n">
-        <v>880347.4494141438</v>
+        <v>981082.446143602</v>
       </c>
       <c r="AE3" t="n">
-        <v>1204530.218476838</v>
+        <v>1342360.285116489</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169878064834116e-06</v>
+        <v>2.025984312531447e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1089571.544994188</v>
+        <v>1214247.303519463</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>759.6802688088341</v>
+        <v>840.3195602136944</v>
       </c>
       <c r="AB4" t="n">
-        <v>1039.428058512356</v>
+        <v>1149.762294566944</v>
       </c>
       <c r="AC4" t="n">
-        <v>940.2265034543788</v>
+        <v>1040.030594874989</v>
       </c>
       <c r="AD4" t="n">
-        <v>759680.268808834</v>
+        <v>840319.5602136945</v>
       </c>
       <c r="AE4" t="n">
-        <v>1039428.058512356</v>
+        <v>1149762.294566944</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.275223050099213e-06</v>
+        <v>2.208419810696981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.43518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>940226.5034543788</v>
+        <v>1040030.594874989</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>685.8471986026281</v>
+        <v>766.5717413535092</v>
       </c>
       <c r="AB5" t="n">
-        <v>938.4063945710558</v>
+        <v>1048.857275278292</v>
       </c>
       <c r="AC5" t="n">
-        <v>848.8462053348402</v>
+        <v>948.7558090061627</v>
       </c>
       <c r="AD5" t="n">
-        <v>685847.1986026281</v>
+        <v>766571.7413535092</v>
       </c>
       <c r="AE5" t="n">
-        <v>938406.3945710558</v>
+        <v>1048857.275278293</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.333355661875209e-06</v>
+        <v>2.309093345012156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.72145061728395</v>
       </c>
       <c r="AH5" t="n">
-        <v>848846.2053348402</v>
+        <v>948755.8090061627</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>640.2646497900888</v>
+        <v>720.8186003403775</v>
       </c>
       <c r="AB6" t="n">
-        <v>876.0383403256122</v>
+        <v>986.2558092580016</v>
       </c>
       <c r="AC6" t="n">
-        <v>792.4304706524678</v>
+        <v>892.1289390411393</v>
       </c>
       <c r="AD6" t="n">
-        <v>640264.6497900888</v>
+        <v>720818.6003403775</v>
       </c>
       <c r="AE6" t="n">
-        <v>876038.3403256122</v>
+        <v>986255.8092580016</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.367365956241352e-06</v>
+        <v>2.367992066957295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.32793209876543</v>
       </c>
       <c r="AH6" t="n">
-        <v>792430.4706524678</v>
+        <v>892128.9390411393</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>635.6439902841286</v>
+        <v>716.1979408344175</v>
       </c>
       <c r="AB7" t="n">
-        <v>869.7161501404471</v>
+        <v>979.9336190728366</v>
       </c>
       <c r="AC7" t="n">
-        <v>786.7116614253254</v>
+        <v>886.4101298139968</v>
       </c>
       <c r="AD7" t="n">
-        <v>635643.9902841286</v>
+        <v>716197.9408344175</v>
       </c>
       <c r="AE7" t="n">
-        <v>869716.1501404471</v>
+        <v>979933.6190728366</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.372364274263213e-06</v>
+        <v>2.376648109160095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.27391975308642</v>
       </c>
       <c r="AH7" t="n">
-        <v>786711.6614253253</v>
+        <v>886410.1298139968</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.590106956396</v>
+        <v>700.6283974708342</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.38227460721</v>
+        <v>958.6306829630064</v>
       </c>
       <c r="AC2" t="n">
-        <v>765.6047382236803</v>
+        <v>867.1403160276301</v>
       </c>
       <c r="AD2" t="n">
-        <v>618590.106956396</v>
+        <v>700628.3974708342</v>
       </c>
       <c r="AE2" t="n">
-        <v>846382.27460721</v>
+        <v>958630.6829630064</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.330269276299229e-06</v>
+        <v>2.517155731030627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.58101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>765604.7382236803</v>
+        <v>867140.3160276301</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>500.7688025540684</v>
+        <v>582.6364113593635</v>
       </c>
       <c r="AB3" t="n">
-        <v>685.1739680148454</v>
+        <v>797.1888421262464</v>
       </c>
       <c r="AC3" t="n">
-        <v>619.7819261552115</v>
+        <v>721.1062578952838</v>
       </c>
       <c r="AD3" t="n">
-        <v>500768.8025540684</v>
+        <v>582636.4113593635</v>
       </c>
       <c r="AE3" t="n">
-        <v>685173.9680148454</v>
+        <v>797188.8421262464</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.469946640952805e-06</v>
+        <v>2.78145536208812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9104938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>619781.9261552115</v>
+        <v>721106.2578952838</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>843.2119032030593</v>
+        <v>938.0076187921916</v>
       </c>
       <c r="AB2" t="n">
-        <v>1153.719725846159</v>
+        <v>1283.423406007025</v>
       </c>
       <c r="AC2" t="n">
-        <v>1043.610334467206</v>
+        <v>1160.935277433777</v>
       </c>
       <c r="AD2" t="n">
-        <v>843211.9032030592</v>
+        <v>938007.6187921916</v>
       </c>
       <c r="AE2" t="n">
-        <v>1153719.72584616</v>
+        <v>1283423.406007025</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.152224799196438e-06</v>
+        <v>2.099103349968549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.4212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1043610.334467206</v>
+        <v>1160935.277433777</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>606.0203833741426</v>
+        <v>681.9081782599017</v>
       </c>
       <c r="AB3" t="n">
-        <v>829.1838242649039</v>
+        <v>933.0168531608246</v>
       </c>
       <c r="AC3" t="n">
-        <v>750.0476838438672</v>
+        <v>843.9710341925326</v>
       </c>
       <c r="AD3" t="n">
-        <v>606020.3833741426</v>
+        <v>681908.1782599017</v>
       </c>
       <c r="AE3" t="n">
-        <v>829183.8242649039</v>
+        <v>933016.8531608245</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.386474356953242e-06</v>
+        <v>2.525855171105257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.13811728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>750047.6838438672</v>
+        <v>843971.0341925325</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>548.5009719881183</v>
+        <v>624.474018219898</v>
       </c>
       <c r="AB4" t="n">
-        <v>750.4832280292085</v>
+        <v>854.4329015777784</v>
       </c>
       <c r="AC4" t="n">
-        <v>678.858162055926</v>
+        <v>772.8870246553035</v>
       </c>
       <c r="AD4" t="n">
-        <v>548500.9719881183</v>
+        <v>624474.018219898</v>
       </c>
       <c r="AE4" t="n">
-        <v>750483.2280292085</v>
+        <v>854432.9015777784</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.439077562916456e-06</v>
+        <v>2.621686788280546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.54783950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>678858.1620559259</v>
+        <v>772887.0246553036</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>476.3706396697852</v>
+        <v>546.7065880603033</v>
       </c>
       <c r="AB2" t="n">
-        <v>651.7913251855892</v>
+        <v>748.0280727765398</v>
       </c>
       <c r="AC2" t="n">
-        <v>589.5852759047461</v>
+        <v>676.63732337474</v>
       </c>
       <c r="AD2" t="n">
-        <v>476370.6396697853</v>
+        <v>546706.5880603032</v>
       </c>
       <c r="AE2" t="n">
-        <v>651791.3251855893</v>
+        <v>748028.0727765398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.472892890339686e-06</v>
+        <v>2.88639549828769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>589585.2759047461</v>
+        <v>676637.3233747401</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.937359672232</v>
+        <v>547.2733080627501</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.5667364948588</v>
+        <v>748.8034840858095</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.2866830469558</v>
+        <v>677.3387305169497</v>
       </c>
       <c r="AD3" t="n">
-        <v>476937.3596722321</v>
+        <v>547273.30806275</v>
       </c>
       <c r="AE3" t="n">
-        <v>652566.7364948587</v>
+        <v>748803.4840858094</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.477174372686674e-06</v>
+        <v>2.894785824192173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4429012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>590286.6830469557</v>
+        <v>677338.7305169497</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1477.581827755473</v>
+        <v>1609.610079070518</v>
       </c>
       <c r="AB2" t="n">
-        <v>2021.69264304466</v>
+        <v>2202.339521169269</v>
       </c>
       <c r="AC2" t="n">
-        <v>1828.745134655923</v>
+        <v>1992.151328271804</v>
       </c>
       <c r="AD2" t="n">
-        <v>1477581.827755473</v>
+        <v>1609610.079070518</v>
       </c>
       <c r="AE2" t="n">
-        <v>2021692.64304466</v>
+        <v>2202339.521169269</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.50265052057744e-07</v>
+        <v>1.462865043280216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.42901234567901</v>
       </c>
       <c r="AH2" t="n">
-        <v>1828745.134655923</v>
+        <v>1992151.328271804</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>936.5186399662994</v>
+        <v>1028.014747030424</v>
       </c>
       <c r="AB3" t="n">
-        <v>1281.386119488329</v>
+        <v>1406.575129696824</v>
       </c>
       <c r="AC3" t="n">
-        <v>1159.092426681077</v>
+        <v>1272.333573459152</v>
       </c>
       <c r="AD3" t="n">
-        <v>936518.6399662994</v>
+        <v>1028014.747030424</v>
       </c>
       <c r="AE3" t="n">
-        <v>1281386.119488329</v>
+        <v>1406575.129696824</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.138693996072013e-06</v>
+        <v>1.959101621095067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.24074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1159092.426681077</v>
+        <v>1272333.573459152</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>795.6411192553343</v>
+        <v>887.1371368109072</v>
       </c>
       <c r="AB4" t="n">
-        <v>1088.631280574011</v>
+        <v>1213.820168312958</v>
       </c>
       <c r="AC4" t="n">
-        <v>984.7338390596254</v>
+        <v>1097.974875056475</v>
       </c>
       <c r="AD4" t="n">
-        <v>795641.1192553343</v>
+        <v>887137.1368109073</v>
       </c>
       <c r="AE4" t="n">
-        <v>1088631.280574011</v>
+        <v>1213820.168312958</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.248853715962473e-06</v>
+        <v>2.148629348966857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.63194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>984733.8390596254</v>
+        <v>1097974.875056474</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>721.078464421839</v>
+        <v>812.4891411228405</v>
       </c>
       <c r="AB5" t="n">
-        <v>986.6113667586513</v>
+        <v>1111.6834873754</v>
       </c>
       <c r="AC5" t="n">
-        <v>892.4505626329551</v>
+        <v>1005.585975597865</v>
       </c>
       <c r="AD5" t="n">
-        <v>721078.464421839</v>
+        <v>812489.1411228405</v>
       </c>
       <c r="AE5" t="n">
-        <v>986611.3667586513</v>
+        <v>1111683.4873754</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.307917847301591e-06</v>
+        <v>2.250248076960677e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.88348765432099</v>
       </c>
       <c r="AH5" t="n">
-        <v>892450.5626329551</v>
+        <v>1005585.975597865</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>662.1842399313708</v>
+        <v>743.4192996509073</v>
       </c>
       <c r="AB6" t="n">
-        <v>906.0296905809821</v>
+        <v>1017.179083127152</v>
       </c>
       <c r="AC6" t="n">
-        <v>819.5594885325897</v>
+        <v>920.1009390533056</v>
       </c>
       <c r="AD6" t="n">
-        <v>662184.2399313708</v>
+        <v>743419.2996509073</v>
       </c>
       <c r="AE6" t="n">
-        <v>906029.6905809821</v>
+        <v>1017179.083127152</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.356536726608084e-06</v>
+        <v>2.333895945126966e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>819559.4885325897</v>
+        <v>920100.9390533057</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>649.5522050983667</v>
+        <v>730.7872648179032</v>
       </c>
       <c r="AB7" t="n">
-        <v>888.7459832364204</v>
+        <v>999.8953757825903</v>
       </c>
       <c r="AC7" t="n">
-        <v>803.9253139591575</v>
+        <v>904.4667644798733</v>
       </c>
       <c r="AD7" t="n">
-        <v>649552.2050983667</v>
+        <v>730787.2648179032</v>
       </c>
       <c r="AE7" t="n">
-        <v>888745.9832364204</v>
+        <v>999895.3757825904</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.359551850906161e-06</v>
+        <v>2.339083409819449e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>803925.3139591576</v>
+        <v>904466.7644798732</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>651.7865849734321</v>
+        <v>733.0216446929686</v>
       </c>
       <c r="AB8" t="n">
-        <v>891.8031603553679</v>
+        <v>1002.952552901538</v>
       </c>
       <c r="AC8" t="n">
-        <v>806.6907183846475</v>
+        <v>907.2321689053634</v>
       </c>
       <c r="AD8" t="n">
-        <v>651786.5849734321</v>
+        <v>733021.6446929686</v>
       </c>
       <c r="AE8" t="n">
-        <v>891803.1603553679</v>
+        <v>1002952.552901538</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359821058432775e-06</v>
+        <v>2.339546576309849e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.27391975308642</v>
       </c>
       <c r="AH8" t="n">
-        <v>806690.7183846475</v>
+        <v>907232.1689053634</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.9111920430418</v>
+        <v>533.3831305347617</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.7978063355523</v>
+        <v>729.798330400632</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.2634192046064</v>
+        <v>660.1474020255848</v>
       </c>
       <c r="AD2" t="n">
-        <v>455911.1920430418</v>
+        <v>533383.1305347617</v>
       </c>
       <c r="AE2" t="n">
-        <v>623797.8063355524</v>
+        <v>729798.330400632</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467059810754194e-06</v>
+        <v>2.940956672730222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>564263.4192046064</v>
+        <v>660147.4020255848</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1089.831012693822</v>
+        <v>1197.617189680695</v>
       </c>
       <c r="AB2" t="n">
-        <v>1491.154871518655</v>
+        <v>1638.632674062618</v>
       </c>
       <c r="AC2" t="n">
-        <v>1348.841143429921</v>
+        <v>1482.243871485484</v>
       </c>
       <c r="AD2" t="n">
-        <v>1089831.012693822</v>
+        <v>1197617.189680695</v>
       </c>
       <c r="AE2" t="n">
-        <v>1491154.871518655</v>
+        <v>1638632.674062618</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.008020584544252e-06</v>
+        <v>1.785279358112514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.42361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1348841.143429921</v>
+        <v>1482243.871485484</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>749.0117382563312</v>
+        <v>827.5258417194018</v>
       </c>
       <c r="AB3" t="n">
-        <v>1024.830904348072</v>
+        <v>1132.257364504027</v>
       </c>
       <c r="AC3" t="n">
-        <v>927.0224811962991</v>
+        <v>1024.196310768954</v>
       </c>
       <c r="AD3" t="n">
-        <v>749011.7382563312</v>
+        <v>827525.8417194018</v>
       </c>
       <c r="AE3" t="n">
-        <v>1024830.904348072</v>
+        <v>1132257.364504027</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.269205838180606e-06</v>
+        <v>2.247857850168988e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>927022.4811962991</v>
+        <v>1024196.310768954</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>637.0042164969934</v>
+        <v>715.5182304515129</v>
       </c>
       <c r="AB4" t="n">
-        <v>871.577271653834</v>
+        <v>979.003609340241</v>
       </c>
       <c r="AC4" t="n">
-        <v>788.3951601135749</v>
+        <v>885.5688789050033</v>
       </c>
       <c r="AD4" t="n">
-        <v>637004.2164969934</v>
+        <v>715518.2304515128</v>
       </c>
       <c r="AE4" t="n">
-        <v>871577.271653834</v>
+        <v>979003.6093402411</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.365596966933672e-06</v>
+        <v>2.418573701716619e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.81404320987654</v>
       </c>
       <c r="AH4" t="n">
-        <v>788395.1601135749</v>
+        <v>885568.8789050033</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>592.214082518898</v>
+        <v>670.5575042728254</v>
       </c>
       <c r="AB5" t="n">
-        <v>810.293434343752</v>
+        <v>917.4863602553121</v>
       </c>
       <c r="AC5" t="n">
-        <v>732.9601662239612</v>
+        <v>829.9227497327386</v>
       </c>
       <c r="AD5" t="n">
-        <v>592214.082518898</v>
+        <v>670557.5042728254</v>
       </c>
       <c r="AE5" t="n">
-        <v>810293.434343752</v>
+        <v>917486.3602553121</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404836328870895e-06</v>
+        <v>2.488069527462781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.37037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>732960.1662239612</v>
+        <v>829922.7497327386</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>595.1437915223742</v>
+        <v>673.4872132763015</v>
       </c>
       <c r="AB6" t="n">
-        <v>814.3019914519473</v>
+        <v>921.4949173635073</v>
       </c>
       <c r="AC6" t="n">
-        <v>736.5861522677956</v>
+        <v>833.5487357765729</v>
       </c>
       <c r="AD6" t="n">
-        <v>595143.7915223741</v>
+        <v>673487.2132763015</v>
       </c>
       <c r="AE6" t="n">
-        <v>814301.9914519473</v>
+        <v>921494.9173635073</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404836328870895e-06</v>
+        <v>2.488069527462781e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.37037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>736586.1522677955</v>
+        <v>833548.735776573</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1267.723383829385</v>
+        <v>1387.664343300721</v>
       </c>
       <c r="AB2" t="n">
-        <v>1734.555061763858</v>
+        <v>1898.663573934223</v>
       </c>
       <c r="AC2" t="n">
-        <v>1569.011561132434</v>
+        <v>1717.457787229002</v>
       </c>
       <c r="AD2" t="n">
-        <v>1267723.383829385</v>
+        <v>1387664.343300721</v>
       </c>
       <c r="AE2" t="n">
-        <v>1734555.061763858</v>
+        <v>1898663.573934223</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.257386769812992e-07</v>
+        <v>1.614407417890668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.8587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1569011.561132434</v>
+        <v>1717457.787229002</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>836.4488752832995</v>
+        <v>926.4686005277301</v>
       </c>
       <c r="AB3" t="n">
-        <v>1144.46625268261</v>
+        <v>1267.635212152031</v>
       </c>
       <c r="AC3" t="n">
-        <v>1035.239999795055</v>
+        <v>1146.653886641435</v>
       </c>
       <c r="AD3" t="n">
-        <v>836448.8752832995</v>
+        <v>926468.6005277302</v>
       </c>
       <c r="AE3" t="n">
-        <v>1144466.25268261</v>
+        <v>1267635.212152031</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.201063527887522e-06</v>
+        <v>2.094549916724199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.61574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1035239.999795055</v>
+        <v>1146653.886641435</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>721.680804151248</v>
+        <v>801.6130863558324</v>
       </c>
       <c r="AB4" t="n">
-        <v>987.4355145497821</v>
+        <v>1096.802389425507</v>
       </c>
       <c r="AC4" t="n">
-        <v>893.1960549155989</v>
+        <v>992.1251087505578</v>
       </c>
       <c r="AD4" t="n">
-        <v>721680.8041512481</v>
+        <v>801613.0863558324</v>
       </c>
       <c r="AE4" t="n">
-        <v>987435.514549782</v>
+        <v>1096802.389425508</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.305215299176548e-06</v>
+        <v>2.27618151140246e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.21141975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>893196.0549155989</v>
+        <v>992125.1087505579</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>649.2342467816229</v>
+        <v>729.2517803322281</v>
       </c>
       <c r="AB5" t="n">
-        <v>888.3109386401206</v>
+        <v>997.7944581684952</v>
       </c>
       <c r="AC5" t="n">
-        <v>803.5317894085395</v>
+        <v>902.5663554942107</v>
       </c>
       <c r="AD5" t="n">
-        <v>649234.2467816229</v>
+        <v>729251.7803322282</v>
       </c>
       <c r="AE5" t="n">
-        <v>888310.9386401207</v>
+        <v>997794.4581684952</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.361761100229201e-06</v>
+        <v>2.374792450903928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.54012345679012</v>
       </c>
       <c r="AH5" t="n">
-        <v>803531.7894085394</v>
+        <v>902566.3554942107</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>616.8095975769057</v>
+        <v>696.6565389269188</v>
       </c>
       <c r="AB6" t="n">
-        <v>843.9461031236618</v>
+        <v>953.1962108771892</v>
       </c>
       <c r="AC6" t="n">
-        <v>763.4010715273337</v>
+        <v>862.2245023303537</v>
       </c>
       <c r="AD6" t="n">
-        <v>616809.5975769057</v>
+        <v>696656.5389269188</v>
       </c>
       <c r="AE6" t="n">
-        <v>843946.1031236618</v>
+        <v>953196.2108771892</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.389019357380673e-06</v>
+        <v>2.42232847120677e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.23533950617284</v>
       </c>
       <c r="AH6" t="n">
-        <v>763401.0715273337</v>
+        <v>862224.5023303537</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>618.7887726260694</v>
+        <v>698.6357139760822</v>
       </c>
       <c r="AB7" t="n">
-        <v>846.654097740968</v>
+        <v>955.9042054944956</v>
       </c>
       <c r="AC7" t="n">
-        <v>765.8506189390587</v>
+        <v>864.6740497420786</v>
       </c>
       <c r="AD7" t="n">
-        <v>618788.7726260694</v>
+        <v>698635.7139760823</v>
       </c>
       <c r="AE7" t="n">
-        <v>846654.097740968</v>
+        <v>955904.2054944956</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389348430907653e-06</v>
+        <v>2.422902346703383e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.23148148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>765850.6189390586</v>
+        <v>864674.0497420786</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1713.665962703162</v>
+        <v>1847.967240567183</v>
       </c>
       <c r="AB2" t="n">
-        <v>2344.713371777048</v>
+        <v>2528.470305104818</v>
       </c>
       <c r="AC2" t="n">
-        <v>2120.937218400531</v>
+        <v>2287.156647915975</v>
       </c>
       <c r="AD2" t="n">
-        <v>1713665.962703162</v>
+        <v>1847967.240567183</v>
       </c>
       <c r="AE2" t="n">
-        <v>2344713.371777047</v>
+        <v>2528470.305104818</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.807859222155672e-07</v>
+        <v>1.32728432010295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.1574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2120937.218400531</v>
+        <v>2287156.647915975</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1028.899009288768</v>
+        <v>1132.18792167269</v>
       </c>
       <c r="AB3" t="n">
-        <v>1407.785016329589</v>
+        <v>1549.109463038483</v>
       </c>
       <c r="AC3" t="n">
-        <v>1273.427990209772</v>
+        <v>1401.264630074877</v>
       </c>
       <c r="AD3" t="n">
-        <v>1028899.009288768</v>
+        <v>1132187.92167269</v>
       </c>
       <c r="AE3" t="n">
-        <v>1407785.016329589</v>
+        <v>1549109.463038483</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.08158093272671e-06</v>
+        <v>1.838615902367846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.88503086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>1273427.990209772</v>
+        <v>1401264.630074877</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>879.6498570009992</v>
+        <v>962.3493491003451</v>
       </c>
       <c r="AB4" t="n">
-        <v>1203.575741761569</v>
+        <v>1316.728835295991</v>
       </c>
       <c r="AC4" t="n">
-        <v>1088.708162197007</v>
+        <v>1191.062083295868</v>
       </c>
       <c r="AD4" t="n">
-        <v>879649.8570009992</v>
+        <v>962349.349100345</v>
       </c>
       <c r="AE4" t="n">
-        <v>1203575.741761569</v>
+        <v>1316728.835295991</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.197303898755813e-06</v>
+        <v>2.035337274918192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.05632716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>1088708.162197007</v>
+        <v>1191062.083295868</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>795.9839923957537</v>
+        <v>878.598143640528</v>
       </c>
       <c r="AB5" t="n">
-        <v>1089.100414731229</v>
+        <v>1202.136741143453</v>
       </c>
       <c r="AC5" t="n">
-        <v>985.1581997113118</v>
+        <v>1087.406497778234</v>
       </c>
       <c r="AD5" t="n">
-        <v>795983.9923957537</v>
+        <v>878598.143640528</v>
       </c>
       <c r="AE5" t="n">
-        <v>1089100.414731229</v>
+        <v>1202136.741143453</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.262470857210444e-06</v>
+        <v>2.146116785261044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.1766975308642</v>
       </c>
       <c r="AH5" t="n">
-        <v>985158.1997113118</v>
+        <v>1087406.497778234</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>737.2060477963461</v>
+        <v>819.9054503871407</v>
       </c>
       <c r="AB6" t="n">
-        <v>1008.677837830415</v>
+        <v>1121.830808895289</v>
       </c>
       <c r="AC6" t="n">
-        <v>912.4110406761165</v>
+        <v>1014.764850993751</v>
       </c>
       <c r="AD6" t="n">
-        <v>737206.047796346</v>
+        <v>819905.4503871407</v>
       </c>
       <c r="AE6" t="n">
-        <v>1008677.837830415</v>
+        <v>1121830.808895289</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301486331118701e-06</v>
+        <v>2.212440505100754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>912411.0406761165</v>
+        <v>1014764.850993751</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>698.5145769201196</v>
+        <v>781.0433873103224</v>
       </c>
       <c r="AB7" t="n">
-        <v>955.7384604303378</v>
+        <v>1068.658019720365</v>
       </c>
       <c r="AC7" t="n">
-        <v>864.5241231542195</v>
+        <v>966.6667981892031</v>
       </c>
       <c r="AD7" t="n">
-        <v>698514.5769201196</v>
+        <v>781043.3873103224</v>
       </c>
       <c r="AE7" t="n">
-        <v>955738.4604303378</v>
+        <v>1068658.019720365</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.328008383259863e-06</v>
+        <v>2.257526235955156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.37808641975309</v>
       </c>
       <c r="AH7" t="n">
-        <v>864524.1231542195</v>
+        <v>966666.798189203</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>677.8763841858278</v>
+        <v>760.4051945760305</v>
       </c>
       <c r="AB8" t="n">
-        <v>927.5003746384755</v>
+        <v>1040.419933928502</v>
       </c>
       <c r="AC8" t="n">
-        <v>838.9810406379302</v>
+        <v>941.1237156729137</v>
       </c>
       <c r="AD8" t="n">
-        <v>677876.3841858278</v>
+        <v>760405.1945760305</v>
       </c>
       <c r="AE8" t="n">
-        <v>927500.3746384755</v>
+        <v>1040419.933928502</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340395928571304e-06</v>
+        <v>2.278584241982961e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.23533950617284</v>
       </c>
       <c r="AH8" t="n">
-        <v>838981.0406379302</v>
+        <v>941123.7156729137</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>680.0817762771042</v>
+        <v>762.6105866673068</v>
       </c>
       <c r="AB9" t="n">
-        <v>930.517889392792</v>
+        <v>1043.437448682819</v>
       </c>
       <c r="AC9" t="n">
-        <v>841.7105680192034</v>
+        <v>943.8532430541869</v>
       </c>
       <c r="AD9" t="n">
-        <v>680081.7762771042</v>
+        <v>762610.5866673068</v>
       </c>
       <c r="AE9" t="n">
-        <v>930517.889392792</v>
+        <v>1043437.448682819</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.340501805026957e-06</v>
+        <v>2.278764224940464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.23533950617284</v>
       </c>
       <c r="AH9" t="n">
-        <v>841710.5680192034</v>
+        <v>943853.2430541869</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>926.4198002775997</v>
+        <v>1022.416012543119</v>
       </c>
       <c r="AB2" t="n">
-        <v>1267.568441496888</v>
+        <v>1398.914694172561</v>
       </c>
       <c r="AC2" t="n">
-        <v>1146.593488483905</v>
+        <v>1265.404239149836</v>
       </c>
       <c r="AD2" t="n">
-        <v>926419.8002775997</v>
+        <v>1022416.012543119</v>
       </c>
       <c r="AE2" t="n">
-        <v>1267568.441496887</v>
+        <v>1398914.694172561</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.100463508239927e-06</v>
+        <v>1.984396118977866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.07716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>1146593.488483905</v>
+        <v>1265404.239149836</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>651.6903248253453</v>
+        <v>728.4702443685566</v>
       </c>
       <c r="AB3" t="n">
-        <v>891.6714529740575</v>
+        <v>996.7251261840665</v>
       </c>
       <c r="AC3" t="n">
-        <v>806.5715809709569</v>
+        <v>901.5990790535591</v>
       </c>
       <c r="AD3" t="n">
-        <v>651690.3248253453</v>
+        <v>728470.2443685565</v>
       </c>
       <c r="AE3" t="n">
-        <v>891671.4529740575</v>
+        <v>996725.1261840665</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.344438243868451e-06</v>
+        <v>2.424340301483498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.43518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>806571.5809709569</v>
+        <v>901599.0790535591</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>563.2463808110271</v>
+        <v>639.9409594996669</v>
       </c>
       <c r="AB4" t="n">
-        <v>770.658546902238</v>
+        <v>875.5954529900491</v>
       </c>
       <c r="AC4" t="n">
-        <v>697.1079768119514</v>
+        <v>792.0298518626147</v>
       </c>
       <c r="AD4" t="n">
-        <v>563246.380811027</v>
+        <v>639940.9594996668</v>
       </c>
       <c r="AE4" t="n">
-        <v>770658.5469022379</v>
+        <v>875595.4529900491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.427939456203284e-06</v>
+        <v>2.574912747045284e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>697107.9768119514</v>
+        <v>792029.8518626147</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>564.7145513329593</v>
+        <v>641.409130021599</v>
       </c>
       <c r="AB5" t="n">
-        <v>772.6673625814576</v>
+        <v>877.6042686692689</v>
       </c>
       <c r="AC5" t="n">
-        <v>698.9250739421369</v>
+        <v>793.8469489928003</v>
       </c>
       <c r="AD5" t="n">
-        <v>564714.5513329593</v>
+        <v>641409.130021599</v>
       </c>
       <c r="AE5" t="n">
-        <v>772667.3625814576</v>
+        <v>877604.2686692689</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.428397624720896e-06</v>
+        <v>2.575738933303511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.46682098765432</v>
       </c>
       <c r="AH5" t="n">
-        <v>698925.073942137</v>
+        <v>793846.9489928003</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.4160264807571</v>
+        <v>779.5962596300228</v>
       </c>
       <c r="AB2" t="n">
-        <v>952.8671311376905</v>
+        <v>1066.677995785411</v>
       </c>
       <c r="AC2" t="n">
-        <v>861.9268294993265</v>
+        <v>964.8757449596205</v>
       </c>
       <c r="AD2" t="n">
-        <v>696416.026480757</v>
+        <v>779596.2596300228</v>
       </c>
       <c r="AE2" t="n">
-        <v>952867.1311376905</v>
+        <v>1066677.995785411</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.264857568439569e-06</v>
+        <v>2.359819920172019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.1983024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>861926.8294993264</v>
+        <v>964875.7449596205</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.6097716257311</v>
+        <v>590.6235356215411</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.8482807529272</v>
+        <v>808.1171779088115</v>
       </c>
       <c r="AC3" t="n">
-        <v>639.3876729056599</v>
+        <v>730.9916086487764</v>
       </c>
       <c r="AD3" t="n">
-        <v>516609.7716257311</v>
+        <v>590623.5356215411</v>
       </c>
       <c r="AE3" t="n">
-        <v>706848.2807529272</v>
+        <v>808117.1779088115</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459579533508277e-06</v>
+        <v>2.723108865528187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.76774691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>639387.6729056599</v>
+        <v>730991.6086487764</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.5130683773571</v>
+        <v>593.5268323731671</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.8206994529147</v>
+        <v>812.0895966087992</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.9809695402454</v>
+        <v>734.5849052833619</v>
       </c>
       <c r="AD4" t="n">
-        <v>519513.0683773571</v>
+        <v>593526.832373167</v>
       </c>
       <c r="AE4" t="n">
-        <v>710820.6994529148</v>
+        <v>812089.5966087992</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4604743954801e-06</v>
+        <v>2.724778391931478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.76003086419753</v>
       </c>
       <c r="AH4" t="n">
-        <v>642980.9695402454</v>
+        <v>734584.9052833619</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.8321702076904</v>
+        <v>620.4482331715532</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.6221909926836</v>
+        <v>848.9246448695311</v>
       </c>
       <c r="AC2" t="n">
-        <v>668.1291257470972</v>
+        <v>767.9044682364047</v>
       </c>
       <c r="AD2" t="n">
-        <v>539832.1702076904</v>
+        <v>620448.2331715531</v>
       </c>
       <c r="AE2" t="n">
-        <v>738622.1909926836</v>
+        <v>848924.6448695312</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.404030202414897e-06</v>
+        <v>2.700002145749151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.95601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>668129.1257470972</v>
+        <v>767904.4682364047</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>494.9698732874499</v>
+        <v>566.6192031133709</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.2396171615543</v>
+        <v>775.273391174723</v>
       </c>
       <c r="AC3" t="n">
-        <v>612.6048186114272</v>
+        <v>701.2823868240451</v>
       </c>
       <c r="AD3" t="n">
-        <v>494969.8732874499</v>
+        <v>566619.2031133709</v>
       </c>
       <c r="AE3" t="n">
-        <v>677239.6171615543</v>
+        <v>775273.3911747229</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474321196241567e-06</v>
+        <v>2.835174333521481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.14969135802469</v>
       </c>
       <c r="AH3" t="n">
-        <v>612604.8186114272</v>
+        <v>701282.3868240451</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>445.2578193874739</v>
+        <v>520.8764201383975</v>
       </c>
       <c r="AB2" t="n">
-        <v>609.2213918745732</v>
+        <v>712.686097479205</v>
       </c>
       <c r="AC2" t="n">
-        <v>551.078157281657</v>
+        <v>644.6683365970091</v>
       </c>
       <c r="AD2" t="n">
-        <v>445257.8193874739</v>
+        <v>520876.4201383975</v>
       </c>
       <c r="AE2" t="n">
-        <v>609221.3918745732</v>
+        <v>712686.097479205</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434290974488025e-06</v>
+        <v>2.958367590615706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.81635802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>551078.157281657</v>
+        <v>644668.3365970091</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1181.019826394853</v>
+        <v>1289.947060720893</v>
       </c>
       <c r="AB2" t="n">
-        <v>1615.923429390939</v>
+        <v>1764.962476926249</v>
       </c>
       <c r="AC2" t="n">
-        <v>1461.701965252644</v>
+        <v>1596.516935268801</v>
       </c>
       <c r="AD2" t="n">
-        <v>1181019.826394852</v>
+        <v>1289947.060720893</v>
       </c>
       <c r="AE2" t="n">
-        <v>1615923.429390938</v>
+        <v>1764962.476926249</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.662219227858503e-07</v>
+        <v>1.697613803029026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1461701.965252644</v>
+        <v>1596516.935268801</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>793.8730077831332</v>
+        <v>882.8944493142275</v>
       </c>
       <c r="AB3" t="n">
-        <v>1086.212072454173</v>
+        <v>1208.015136105838</v>
       </c>
       <c r="AC3" t="n">
-        <v>982.5455167673645</v>
+        <v>1092.723866975788</v>
       </c>
       <c r="AD3" t="n">
-        <v>793873.0077831332</v>
+        <v>882894.4493142274</v>
       </c>
       <c r="AE3" t="n">
-        <v>1086212.072454173</v>
+        <v>1208015.136105838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.233272079854622e-06</v>
+        <v>2.166810394464154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.33024691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>982545.5167673645</v>
+        <v>1092723.866975788</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>673.4612674844966</v>
+        <v>762.48261950704</v>
       </c>
       <c r="AB4" t="n">
-        <v>921.4594171865124</v>
+        <v>1043.262358368629</v>
       </c>
       <c r="AC4" t="n">
-        <v>833.5166236866455</v>
+        <v>943.6948631138426</v>
       </c>
       <c r="AD4" t="n">
-        <v>673461.2674844966</v>
+        <v>762482.61950704</v>
       </c>
       <c r="AE4" t="n">
-        <v>921459.4171865124</v>
+        <v>1043262.358368629</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336137075016769e-06</v>
+        <v>2.347540133168787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.99537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>833516.6236866455</v>
+        <v>943694.8631138427</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>613.4135894669064</v>
+        <v>692.5248050278133</v>
       </c>
       <c r="AB5" t="n">
-        <v>839.2995350062564</v>
+        <v>947.5429902771981</v>
       </c>
       <c r="AC5" t="n">
-        <v>759.1979653495544</v>
+        <v>857.110817170081</v>
       </c>
       <c r="AD5" t="n">
-        <v>613413.5894669064</v>
+        <v>692524.8050278133</v>
       </c>
       <c r="AE5" t="n">
-        <v>839299.5350062564</v>
+        <v>947542.9902771981</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.388483558823031e-06</v>
+        <v>2.439510840264035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.39351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>759197.9653495543</v>
+        <v>857110.817170081</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>608.7843145637572</v>
+        <v>687.8955301246642</v>
       </c>
       <c r="AB6" t="n">
-        <v>832.9655568545728</v>
+        <v>941.2090121255144</v>
       </c>
       <c r="AC6" t="n">
-        <v>753.4684931828733</v>
+        <v>851.3813450033999</v>
       </c>
       <c r="AD6" t="n">
-        <v>608784.3145637573</v>
+        <v>687895.5301246642</v>
       </c>
       <c r="AE6" t="n">
-        <v>832965.5568545728</v>
+        <v>941209.0121255144</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39153017957366e-06</v>
+        <v>2.444863632740479e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.3587962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>753468.4931828734</v>
+        <v>851381.3450033999</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1592.701595242211</v>
+        <v>1725.883791083021</v>
       </c>
       <c r="AB2" t="n">
-        <v>2179.204587645718</v>
+        <v>2361.430343578917</v>
       </c>
       <c r="AC2" t="n">
-        <v>1971.224360333658</v>
+        <v>2136.058745876048</v>
       </c>
       <c r="AD2" t="n">
-        <v>1592701.595242211</v>
+        <v>1725883.791083021</v>
       </c>
       <c r="AE2" t="n">
-        <v>2179204.587645718</v>
+        <v>2361430.343578917</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.146101774944797e-07</v>
+        <v>1.392892621405964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.28163580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>1971224.360333658</v>
+        <v>2136058.745876048</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.6295767945813</v>
+        <v>1083.123303664166</v>
       </c>
       <c r="AB3" t="n">
-        <v>1341.740649293973</v>
+        <v>1481.977088101042</v>
       </c>
       <c r="AC3" t="n">
-        <v>1213.686804870184</v>
+        <v>1340.539274780584</v>
       </c>
       <c r="AD3" t="n">
-        <v>980629.5767945814</v>
+        <v>1083123.303664166</v>
       </c>
       <c r="AE3" t="n">
-        <v>1341740.649293973</v>
+        <v>1481977.088101042</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11059428300571e-06</v>
+        <v>1.898992456652413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1213686.804870185</v>
+        <v>1340539.274780584</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>832.1625353604587</v>
+        <v>924.3983554576272</v>
       </c>
       <c r="AB4" t="n">
-        <v>1138.601493300208</v>
+        <v>1264.80261151435</v>
       </c>
       <c r="AC4" t="n">
-        <v>1029.934964816868</v>
+        <v>1144.091625433034</v>
       </c>
       <c r="AD4" t="n">
-        <v>832162.5353604588</v>
+        <v>924398.3554576272</v>
       </c>
       <c r="AE4" t="n">
-        <v>1138601.493300208</v>
+        <v>1264802.611514349</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222902769569394e-06</v>
+        <v>2.091027452749533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1029934.964816868</v>
+        <v>1144091.625433034</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>765.2096135535531</v>
+        <v>847.1876163868573</v>
       </c>
       <c r="AB5" t="n">
-        <v>1046.993551929555</v>
+        <v>1159.159472020319</v>
       </c>
       <c r="AC5" t="n">
-        <v>947.0699567980771</v>
+        <v>1048.530918901236</v>
       </c>
       <c r="AD5" t="n">
-        <v>765209.6135535531</v>
+        <v>847187.6163868572</v>
       </c>
       <c r="AE5" t="n">
-        <v>1046993.551929555</v>
+        <v>1159159.472020319</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.283167161836695e-06</v>
+        <v>2.194072847518378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.04938271604938</v>
       </c>
       <c r="AH5" t="n">
-        <v>947069.9567980771</v>
+        <v>1048530.918901236</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.2744339702388</v>
+        <v>785.3376881495633</v>
       </c>
       <c r="AB6" t="n">
-        <v>962.2511068363833</v>
+        <v>1074.533671579796</v>
       </c>
       <c r="AC6" t="n">
-        <v>870.4152117278288</v>
+        <v>971.9816860816995</v>
       </c>
       <c r="AD6" t="n">
-        <v>703274.4339702388</v>
+        <v>785337.6881495633</v>
       </c>
       <c r="AE6" t="n">
-        <v>962251.1068363833</v>
+        <v>1074533.671579796</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324695680157297e-06</v>
+        <v>2.265081985809043e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.54783950617284</v>
       </c>
       <c r="AH6" t="n">
-        <v>870415.2117278288</v>
+        <v>971981.6860816996</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>668.2502123905061</v>
+        <v>750.1428743692384</v>
       </c>
       <c r="AB7" t="n">
-        <v>914.329421711389</v>
+        <v>1026.378574679955</v>
       </c>
       <c r="AC7" t="n">
-        <v>827.0671049726565</v>
+        <v>928.4224440438762</v>
       </c>
       <c r="AD7" t="n">
-        <v>668250.2123905062</v>
+        <v>750142.8743692384</v>
       </c>
       <c r="AE7" t="n">
-        <v>914329.4217113891</v>
+        <v>1026378.574679955</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.346153860574883e-06</v>
+        <v>2.301773082972086e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.29706790123457</v>
       </c>
       <c r="AH7" t="n">
-        <v>827067.1049726565</v>
+        <v>928422.4440438763</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>663.7783767699184</v>
+        <v>745.6710387486506</v>
       </c>
       <c r="AB8" t="n">
-        <v>908.2108589318368</v>
+        <v>1020.260011900403</v>
       </c>
       <c r="AC8" t="n">
-        <v>821.5324892373278</v>
+        <v>922.8878283085477</v>
       </c>
       <c r="AD8" t="n">
-        <v>663778.3767699184</v>
+        <v>745671.0387486506</v>
       </c>
       <c r="AE8" t="n">
-        <v>908210.8589318368</v>
+        <v>1020260.011900403</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.35085117370112e-06</v>
+        <v>2.309804964938125e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.24305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>821532.4892373278</v>
+        <v>922887.8283085477</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.0346958773644</v>
+        <v>521.4139805448368</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.0748838600949</v>
+        <v>713.4216113427866</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.6137019618935</v>
+        <v>645.3336540497506</v>
       </c>
       <c r="AD2" t="n">
-        <v>440034.6958773644</v>
+        <v>521413.9805448368</v>
       </c>
       <c r="AE2" t="n">
-        <v>602074.8838600949</v>
+        <v>713421.6113427866</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.342136252559374e-06</v>
+        <v>2.876816164390592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.71450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>544613.7019618935</v>
+        <v>645333.6540497507</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>764.5457650335247</v>
+        <v>858.2428639297472</v>
       </c>
       <c r="AB2" t="n">
-        <v>1046.085245097522</v>
+        <v>1174.285749431601</v>
       </c>
       <c r="AC2" t="n">
-        <v>946.2483374952768</v>
+        <v>1062.213565626249</v>
       </c>
       <c r="AD2" t="n">
-        <v>764545.7650335247</v>
+        <v>858242.8639297471</v>
       </c>
       <c r="AE2" t="n">
-        <v>1046085.245097522</v>
+        <v>1174285.749431601</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.205916358401373e-06</v>
+        <v>2.221819533332858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>946248.3374952768</v>
+        <v>1062213.565626248</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>550.9665148295718</v>
+        <v>635.2000288961432</v>
       </c>
       <c r="AB3" t="n">
-        <v>753.8566925169586</v>
+        <v>869.1087025832112</v>
       </c>
       <c r="AC3" t="n">
-        <v>681.9096678276524</v>
+        <v>786.1621878103941</v>
       </c>
       <c r="AD3" t="n">
-        <v>550966.5148295718</v>
+        <v>635200.0288961432</v>
       </c>
       <c r="AE3" t="n">
-        <v>753856.6925169586</v>
+        <v>869108.7025832112</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429369197005362e-06</v>
+        <v>2.633516313238197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>681909.6678276523</v>
+        <v>786162.1878103941</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.789132367128</v>
+        <v>608.8150841677631</v>
       </c>
       <c r="AB4" t="n">
-        <v>730.3538400192124</v>
+        <v>833.0076571842329</v>
       </c>
       <c r="AC4" t="n">
-        <v>660.6498945858303</v>
+        <v>753.5065755161587</v>
       </c>
       <c r="AD4" t="n">
-        <v>533789.132367128</v>
+        <v>608815.0841677631</v>
       </c>
       <c r="AE4" t="n">
-        <v>730353.8400192123</v>
+        <v>833007.657184233</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.449944964832617e-06</v>
+        <v>2.671425777317878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.64043209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>660649.8945858304</v>
+        <v>753506.5755161587</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1001.092547345902</v>
+        <v>1107.858613141257</v>
       </c>
       <c r="AB2" t="n">
-        <v>1369.738988364837</v>
+        <v>1515.821029772436</v>
       </c>
       <c r="AC2" t="n">
-        <v>1239.013021756041</v>
+        <v>1371.153198159131</v>
       </c>
       <c r="AD2" t="n">
-        <v>1001092.547345902</v>
+        <v>1107858.613141257</v>
       </c>
       <c r="AE2" t="n">
-        <v>1369738.988364837</v>
+        <v>1515821.029772436</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.053102476890703e-06</v>
+        <v>1.88129072135721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.73688271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>1239013.021756041</v>
+        <v>1371153.198159131</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>694.9316221454227</v>
+        <v>782.2701594589728</v>
       </c>
       <c r="AB3" t="n">
-        <v>950.8361036387889</v>
+        <v>1070.336543495515</v>
       </c>
       <c r="AC3" t="n">
-        <v>860.089640414355</v>
+        <v>968.1851260110764</v>
       </c>
       <c r="AD3" t="n">
-        <v>694931.6221454227</v>
+        <v>782270.1594589727</v>
       </c>
       <c r="AE3" t="n">
-        <v>950836.1036387889</v>
+        <v>1070336.543495515</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306105168049547e-06</v>
+        <v>2.333261565411102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.72067901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>860089.640414355</v>
+        <v>968185.1260110764</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>597.2737885775431</v>
+        <v>674.9839025047621</v>
       </c>
       <c r="AB4" t="n">
-        <v>817.2163473916677</v>
+        <v>923.5427535951557</v>
       </c>
       <c r="AC4" t="n">
-        <v>739.2223661669532</v>
+        <v>835.4011293924287</v>
       </c>
       <c r="AD4" t="n">
-        <v>597273.7885775431</v>
+        <v>674983.9025047622</v>
       </c>
       <c r="AE4" t="n">
-        <v>817216.3473916677</v>
+        <v>923542.7535951557</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39932562271143e-06</v>
+        <v>2.49979310459606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.60570987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>739222.3661669532</v>
+        <v>835401.1293924288</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>579.3804111250201</v>
+        <v>656.919932851647</v>
       </c>
       <c r="AB5" t="n">
-        <v>792.7338389610256</v>
+        <v>898.8268333896668</v>
       </c>
       <c r="AC5" t="n">
-        <v>717.0764339795154</v>
+        <v>813.04406192234</v>
       </c>
       <c r="AD5" t="n">
-        <v>579380.4111250201</v>
+        <v>656919.932851647</v>
       </c>
       <c r="AE5" t="n">
-        <v>792733.8389610256</v>
+        <v>898826.8333896669</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414664264613901e-06</v>
+        <v>2.527194468967113e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.43595679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>717076.4339795155</v>
+        <v>813044.06192234</v>
       </c>
     </row>
   </sheetData>
